--- a/excel/collective/zestawy_dla_uczniow/zestaw_007.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_007.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
   <si>
     <t>ZESTAW ZADAŃ NR 7 - CZĘŚĆ 1</t>
   </si>
@@ -61,478 +61,484 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Mikołaj Szymański</t>
-  </si>
-  <si>
-    <t>Jan Kozłowski</t>
-  </si>
-  <si>
-    <t>Natalia Urbaniak</t>
-  </si>
-  <si>
-    <t>Lena Lis</t>
+    <t>Aleksander Mazur</t>
+  </si>
+  <si>
+    <t>Mikołaj Woźniak</t>
+  </si>
+  <si>
+    <t>Szymon Grabowski</t>
+  </si>
+  <si>
+    <t>Anna Olszewska</t>
+  </si>
+  <si>
+    <t>Anna Górska</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 7 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>3,30</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>3,90</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>9,70</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>5,50</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>2,00</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 7 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>26,18</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>5,17</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>18,01</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>9,16</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>17,44</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>5,54</t>
+  </si>
+  <si>
+    <t>13,09</t>
+  </si>
+  <si>
+    <t>10,21</t>
+  </si>
+  <si>
+    <t>9,12</t>
+  </si>
+  <si>
+    <t>26,54</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>12,99</t>
+  </si>
+  <si>
+    <t>6,68</t>
+  </si>
+  <si>
+    <t>3,81</t>
+  </si>
+  <si>
+    <t>28,59</t>
+  </si>
+  <si>
+    <t>11,08</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy pasek?</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Bednarska</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Urbaniak</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Hanna Maciejewska</t>
+  </si>
+  <si>
+    <t>12.10.1997</t>
+  </si>
+  <si>
+    <t>9 556,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Wojciechowski</t>
+  </si>
+  <si>
+    <t>12.12.1989</t>
+  </si>
+  <si>
+    <t>13 024,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Wilk</t>
+  </si>
+  <si>
+    <t>25.11.2001</t>
+  </si>
+  <si>
+    <t>9 115,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Zawadzka</t>
+  </si>
+  <si>
+    <t>16.12.1999</t>
+  </si>
+  <si>
+    <t>8 225,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Jaworska</t>
+  </si>
+  <si>
+    <t>02.10.1998</t>
+  </si>
+  <si>
+    <t>12 819,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Kwiatkowski</t>
+  </si>
+  <si>
+    <t>16.04.1999</t>
+  </si>
+  <si>
+    <t>6 419,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Jaworska</t>
+  </si>
+  <si>
+    <t>20.05.2005</t>
+  </si>
+  <si>
+    <t>14 282,00 zł</t>
   </si>
   <si>
     <t>Jakub Wójcik</t>
   </si>
   <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 7 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>2,20</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>10,90</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>7,80</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>7,00</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>12,50</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>1,60</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 7 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>21,35</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>18,67</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>27,55</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>22,66</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>13,49</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>1,32</t>
-  </si>
-  <si>
-    <t>26,23</t>
-  </si>
-  <si>
-    <t>30,22</t>
-  </si>
-  <si>
-    <t>19,18</t>
-  </si>
-  <si>
-    <t>8,28</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>18,13</t>
-  </si>
-  <si>
-    <t>3,62</t>
-  </si>
-  <si>
-    <t>27,72</t>
-  </si>
-  <si>
-    <t>29,44</t>
-  </si>
-  <si>
-    <t>10,68</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Sikorska</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
-  </si>
-  <si>
-    <t>Górska</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Hanna Zawadzka</t>
-  </si>
-  <si>
-    <t>20.08.1994</t>
-  </si>
-  <si>
-    <t>10 097,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Lis</t>
-  </si>
-  <si>
-    <t>01.09.1998</t>
-  </si>
-  <si>
-    <t>6 714,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Dąbrowski</t>
-  </si>
-  <si>
-    <t>14.08.1975</t>
-  </si>
-  <si>
-    <t>12 033,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Zieliński</t>
-  </si>
-  <si>
-    <t>15.04.1985</t>
-  </si>
-  <si>
-    <t>14 703,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Bednarska</t>
-  </si>
-  <si>
-    <t>03.04.1992</t>
-  </si>
-  <si>
-    <t>11 061,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Wilk</t>
-  </si>
-  <si>
-    <t>07.08.1998</t>
-  </si>
-  <si>
-    <t>13 294,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Kubiak</t>
-  </si>
-  <si>
-    <t>26.02.1977</t>
-  </si>
-  <si>
-    <t>10 924,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Wilk</t>
-  </si>
-  <si>
-    <t>14.11.1998</t>
-  </si>
-  <si>
-    <t>12 696,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Sadowska</t>
-  </si>
-  <si>
-    <t>07.09.1997</t>
-  </si>
-  <si>
-    <t>12 120,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Kwiatkowski</t>
-  </si>
-  <si>
-    <t>08.09.1992</t>
-  </si>
-  <si>
-    <t>13 438,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Wilk</t>
-  </si>
-  <si>
-    <t>21.06.1989</t>
-  </si>
-  <si>
-    <t>14 185,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Zawadzka</t>
-  </si>
-  <si>
-    <t>04.04.1987</t>
-  </si>
-  <si>
-    <t>7 799,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Lewandowski</t>
-  </si>
-  <si>
-    <t>24.08.2003</t>
-  </si>
-  <si>
-    <t>10 426,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Urbaniak</t>
-  </si>
-  <si>
-    <t>02.04.1994</t>
-  </si>
-  <si>
-    <t>12 971,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Piekarska</t>
-  </si>
-  <si>
-    <t>22.01.1980</t>
-  </si>
-  <si>
-    <t>12 888,00 zł</t>
+    <t>26.09.2005</t>
+  </si>
+  <si>
+    <t>11 067,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Mazur</t>
+  </si>
+  <si>
+    <t>26.03.1995</t>
+  </si>
+  <si>
+    <t>14 121,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Kubiak</t>
+  </si>
+  <si>
+    <t>28.10.2004</t>
+  </si>
+  <si>
+    <t>11 810,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Wilk</t>
+  </si>
+  <si>
+    <t>17.05.1992</t>
+  </si>
+  <si>
+    <t>6 315,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Kamiński</t>
+  </si>
+  <si>
+    <t>11.01.2005</t>
+  </si>
+  <si>
+    <t>12 749,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Zieliński</t>
+  </si>
+  <si>
+    <t>20.09.1983</t>
+  </si>
+  <si>
+    <t>9 216,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Wojciechowski</t>
+  </si>
+  <si>
+    <t>6 694,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Rogalska</t>
+  </si>
+  <si>
+    <t>25.01.1993</t>
+  </si>
+  <si>
+    <t>11 718,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>24.08.2000</t>
+  </si>
+  <si>
+    <t>11 844,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -604,292 +610,310 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>665,00 zł</t>
+  </si>
+  <si>
+    <t>785,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>1 350,00 zł</t>
+  </si>
+  <si>
+    <t>1 485,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>969,00 zł</t>
+  </si>
+  <si>
+    <t>1 076,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>580,00 zł</t>
+  </si>
+  <si>
+    <t>766,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 226,00 zł</t>
+  </si>
+  <si>
+    <t>1 434,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 170,00 zł</t>
+  </si>
+  <si>
+    <t>1 615,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>646,00 zł</t>
+  </si>
+  <si>
+    <t>904,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>639,00 zł</t>
+  </si>
+  <si>
+    <t>805,00 zł</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 415,00 zł</t>
+  </si>
+  <si>
+    <t>1 840,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 296,00 zł</t>
+  </si>
+  <si>
+    <t>1 529,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 489,00 zł</t>
+  </si>
+  <si>
+    <t>1 861,00 zł</t>
+  </si>
+  <si>
+    <t>1 127,00 zł</t>
+  </si>
+  <si>
+    <t>1 431,00 zł</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 014,00 zł</t>
+  </si>
+  <si>
+    <t>1 328,00 zł</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 315,00 zł</t>
+  </si>
+  <si>
+    <t>1 802,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 359,00 zł</t>
+  </si>
+  <si>
+    <t>1 862,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>1 299,00 zł</t>
+  </si>
+  <si>
+    <t>1 715,00 zł</t>
+  </si>
+  <si>
+    <t>535,00 zł</t>
+  </si>
+  <si>
+    <t>728,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 004,00 zł</t>
+  </si>
+  <si>
+    <t>1 135,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>690,00 zł</t>
+  </si>
+  <si>
+    <t>925,00 zł</t>
+  </si>
+  <si>
+    <t>1 345,00 zł</t>
+  </si>
+  <si>
+    <t>1 762,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 424,00 zł</t>
+  </si>
+  <si>
+    <t>1 638,00 zł</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>1 412,00 zł</t>
+  </si>
+  <si>
+    <t>1 723,00 zł</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>1 117,00 zł</t>
+  </si>
+  <si>
+    <t>1 508,00 zł</t>
+  </si>
+  <si>
+    <t>878,00 zł</t>
+  </si>
+  <si>
+    <t>1 168,00 zł</t>
+  </si>
+  <si>
+    <t>951,00 zł</t>
+  </si>
+  <si>
+    <t>1 189,00 zł</t>
+  </si>
+  <si>
+    <t>1 387,00 zł</t>
+  </si>
+  <si>
+    <t>1 609,00 zł</t>
   </si>
   <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>1 025,00 zł</t>
-  </si>
-  <si>
-    <t>1 230,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 163,00 zł</t>
-  </si>
-  <si>
-    <t>1 593,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>876,00 zł</t>
-  </si>
-  <si>
-    <t>1 148,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 215,00 zł</t>
-  </si>
-  <si>
-    <t>1 337,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 282,00 zł</t>
-  </si>
-  <si>
-    <t>1 692,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>1 490,00 zł</t>
-  </si>
-  <si>
-    <t>1 654,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>968,00 zł</t>
-  </si>
-  <si>
-    <t>1 346,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>725,00 zł</t>
-  </si>
-  <si>
-    <t>848,00 zł</t>
-  </si>
-  <si>
-    <t>710,00 zł</t>
-  </si>
-  <si>
-    <t>994,00 zł</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 182,00 zł</t>
-  </si>
-  <si>
-    <t>1 608,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>895,00 zł</t>
-  </si>
-  <si>
-    <t>1 110,00 zł</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 260,00 zł</t>
-  </si>
-  <si>
-    <t>1 638,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>1 059,00 zł</t>
-  </si>
-  <si>
-    <t>1 334,00 zł</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>1 452,00 zł</t>
-  </si>
-  <si>
-    <t>1 771,00 zł</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 139,00 zł</t>
-  </si>
-  <si>
-    <t>1 298,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>682,00 zł</t>
-  </si>
-  <si>
-    <t>941,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>773,00 zł</t>
-  </si>
-  <si>
-    <t>904,00 zł</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 189,00 zł</t>
-  </si>
-  <si>
-    <t>1 462,00 zł</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>951,00 zł</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>927,00 zł</t>
-  </si>
-  <si>
-    <t>1 159,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>573,00 zł</t>
-  </si>
-  <si>
-    <t>642,00 zł</t>
-  </si>
-  <si>
-    <t>691,00 zł</t>
-  </si>
-  <si>
-    <t>795,00 zł</t>
-  </si>
-  <si>
-    <t>625,00 zł</t>
-  </si>
-  <si>
-    <t>706,00 zł</t>
-  </si>
-  <si>
-    <t>1 097,00 zł</t>
-  </si>
-  <si>
-    <t>1 437,00 zł</t>
-  </si>
-  <si>
-    <t>1 395,00 zł</t>
-  </si>
-  <si>
-    <t>1 618,00 zł</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 126,00 zł</t>
-  </si>
-  <si>
-    <t>1 261,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
+    <t>1 486,00 zł</t>
+  </si>
+  <si>
+    <t>2 080,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1446,13 +1470,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
@@ -1467,19 +1491,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1488,19 +1512,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="3">
         <v>5</v>
       </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1509,19 +1533,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
         <v>4</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1536,10 +1560,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
         <v>5</v>
@@ -1551,19 +1575,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1572,16 +1596,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
         <v>4</v>
@@ -1593,19 +1617,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1614,19 +1638,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
         <v>6</v>
       </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4</v>
-      </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1635,10 +1659,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
@@ -1647,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1656,16 +1680,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="D27" s="3">
-        <v>6</v>
-      </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3">
         <v>2</v>
@@ -1680,16 +1704,16 @@
         <v>4</v>
       </c>
       <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3">
         <v>2</v>
       </c>
-      <c r="D28" s="3">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>4</v>
-      </c>
-      <c r="F28" s="3">
-        <v>5</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1826,7 +1850,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1841,7 +1865,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1871,7 +1895,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1886,7 +1910,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2003,7 +2027,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2015,7 +2039,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2027,7 +2051,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2039,7 +2063,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2051,7 +2075,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2099,7 +2123,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2111,7 +2135,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2123,7 +2147,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2147,7 +2171,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2195,7 +2219,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2207,7 +2231,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2219,7 +2243,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2231,7 +2255,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2243,7 +2267,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2386,25 +2410,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
         <v>6</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2418,7 +2442,7 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
         <v>6</v>
@@ -2427,16 +2451,16 @@
         <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2444,31 +2468,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>6</v>
       </c>
-      <c r="G14" s="3">
-        <v>5</v>
-      </c>
       <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6</v>
-      </c>
-      <c r="J14" s="3">
-        <v>6</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2476,31 +2500,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" s="3">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3">
         <v>3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2508,31 +2532,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D16" s="3">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
         <v>3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>5</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2586,10 +2610,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A29" sqref="A29:B31"/>
+      <selection activeCell="A30" sqref="A30:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2793,50 +2817,61 @@
         <v>165</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
+      <c r="B26" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="C26" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>175</v>
+      <c r="A29" s="13" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2854,10 +2889,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A45" sqref="A45:B49"/>
+      <selection activeCell="A46" sqref="A46:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2873,7 +2908,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2883,75 +2918,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2959,22 +2994,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2982,22 +3017,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3005,22 +3040,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3028,22 +3063,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3051,22 +3086,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3074,22 +3109,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3097,22 +3132,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3120,22 +3155,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3143,22 +3178,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3166,22 +3201,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3189,22 +3224,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3212,22 +3247,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3235,22 +3270,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3258,22 +3293,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3281,22 +3316,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3304,22 +3339,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3327,22 +3362,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3350,22 +3385,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3373,22 +3408,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3396,22 +3431,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3419,22 +3454,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3442,22 +3477,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3465,22 +3500,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3488,22 +3523,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3511,22 +3546,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3534,67 +3569,90 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>171</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>290</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>175</v>
+      <c r="A45" s="13" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_007.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_007.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>ZESTAW ZADAŃ NR 7 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 7 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>3,30</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,50</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>3,90</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>9,70</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>5,50</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>2,00</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>26,18</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>5,17</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>18,01</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>9,16</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>17,44</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>5,54</t>
-  </si>
-  <si>
-    <t>13,09</t>
-  </si>
-  <si>
-    <t>10,21</t>
-  </si>
-  <si>
-    <t>9,12</t>
-  </si>
-  <si>
-    <t>26,54</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>12,99</t>
-  </si>
-  <si>
-    <t>6,68</t>
-  </si>
-  <si>
-    <t>3,81</t>
-  </si>
-  <si>
-    <t>28,59</t>
-  </si>
-  <si>
-    <t>11,08</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -406,141 +328,93 @@
     <t>12.10.1997</t>
   </si>
   <si>
-    <t>9 556,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Wojciechowski</t>
   </si>
   <si>
     <t>12.12.1989</t>
   </si>
   <si>
-    <t>13 024,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Wilk</t>
   </si>
   <si>
     <t>25.11.2001</t>
   </si>
   <si>
-    <t>9 115,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Zawadzka</t>
   </si>
   <si>
     <t>16.12.1999</t>
   </si>
   <si>
-    <t>8 225,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Jaworska</t>
   </si>
   <si>
     <t>02.10.1998</t>
   </si>
   <si>
-    <t>12 819,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Kwiatkowski</t>
   </si>
   <si>
     <t>16.04.1999</t>
   </si>
   <si>
-    <t>6 419,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Jaworska</t>
   </si>
   <si>
     <t>20.05.2005</t>
   </si>
   <si>
-    <t>14 282,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Wójcik</t>
   </si>
   <si>
     <t>26.09.2005</t>
   </si>
   <si>
-    <t>11 067,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Mazur</t>
   </si>
   <si>
     <t>26.03.1995</t>
   </si>
   <si>
-    <t>14 121,00 zł</t>
-  </si>
-  <si>
     <t>Julia Kubiak</t>
   </si>
   <si>
     <t>28.10.2004</t>
   </si>
   <si>
-    <t>11 810,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Wilk</t>
   </si>
   <si>
     <t>17.05.1992</t>
   </si>
   <si>
-    <t>6 315,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Kamiński</t>
   </si>
   <si>
     <t>11.01.2005</t>
   </si>
   <si>
-    <t>12 749,00 zł</t>
-  </si>
-  <si>
     <t>Adam Zieliński</t>
   </si>
   <si>
     <t>20.09.1983</t>
   </si>
   <si>
-    <t>9 216,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Wojciechowski</t>
   </si>
   <si>
-    <t>6 694,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Rogalska</t>
   </si>
   <si>
     <t>25.01.1993</t>
   </si>
   <si>
-    <t>11 718,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Kaźmierczak</t>
   </si>
   <si>
     <t>24.08.2000</t>
   </si>
   <si>
-    <t>11 844,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -553,9 +427,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -616,12 +487,6 @@
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>665,00 zł</t>
-  </si>
-  <si>
-    <t>785,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -631,12 +496,6 @@
     <t>styczeń</t>
   </si>
   <si>
-    <t>1 350,00 zł</t>
-  </si>
-  <si>
-    <t>1 485,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -649,12 +508,6 @@
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>969,00 zł</t>
-  </si>
-  <si>
-    <t>1 076,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -667,12 +520,6 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>580,00 zł</t>
-  </si>
-  <si>
-    <t>766,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
@@ -682,12 +529,6 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 226,00 zł</t>
-  </si>
-  <si>
-    <t>1 434,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -697,12 +538,6 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 170,00 zł</t>
-  </si>
-  <si>
-    <t>1 615,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -712,12 +547,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>646,00 zł</t>
-  </si>
-  <si>
-    <t>904,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -727,190 +556,70 @@
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>639,00 zł</t>
-  </si>
-  <si>
-    <t>805,00 zł</t>
-  </si>
-  <si>
     <t>kwiecień</t>
   </si>
   <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 415,00 zł</t>
-  </si>
-  <si>
-    <t>1 840,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 296,00 zł</t>
-  </si>
-  <si>
-    <t>1 529,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 489,00 zł</t>
-  </si>
-  <si>
-    <t>1 861,00 zł</t>
-  </si>
-  <si>
-    <t>1 127,00 zł</t>
-  </si>
-  <si>
-    <t>1 431,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 014,00 zł</t>
-  </si>
-  <si>
-    <t>1 328,00 zł</t>
-  </si>
-  <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 315,00 zł</t>
-  </si>
-  <si>
-    <t>1 802,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 359,00 zł</t>
-  </si>
-  <si>
-    <t>1 862,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>1 299,00 zł</t>
-  </si>
-  <si>
-    <t>1 715,00 zł</t>
-  </si>
-  <si>
-    <t>535,00 zł</t>
-  </si>
-  <si>
-    <t>728,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 004,00 zł</t>
-  </si>
-  <si>
-    <t>1 135,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
-    <t>690,00 zł</t>
-  </si>
-  <si>
-    <t>925,00 zł</t>
-  </si>
-  <si>
-    <t>1 345,00 zł</t>
-  </si>
-  <si>
-    <t>1 762,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 424,00 zł</t>
-  </si>
-  <si>
-    <t>1 638,00 zł</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
   </si>
   <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>1 412,00 zł</t>
-  </si>
-  <si>
-    <t>1 723,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>1 117,00 zł</t>
-  </si>
-  <si>
-    <t>1 508,00 zł</t>
-  </si>
-  <si>
-    <t>878,00 zł</t>
-  </si>
-  <si>
-    <t>1 168,00 zł</t>
-  </si>
-  <si>
-    <t>951,00 zł</t>
-  </si>
-  <si>
-    <t>1 189,00 zł</t>
-  </si>
-  <si>
-    <t>1 387,00 zł</t>
-  </si>
-  <si>
-    <t>1 609,00 zł</t>
-  </si>
-  <si>
     <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 486,00 zł</t>
-  </si>
-  <si>
-    <t>2 080,00 zł</t>
   </si>
   <si>
     <t>Magdalena Szymańska</t>
@@ -935,7 +644,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -992,14 +703,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1010,8 +721,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1042,30 +753,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1368,7 +1080,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1443,25 +1155,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1484,7 +1196,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1505,7 +1217,7 @@
       <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1526,7 +1238,7 @@
       <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1547,7 +1259,7 @@
       <c r="F20" s="3">
         <v>4</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1568,7 +1280,7 @@
       <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1589,7 +1301,7 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1610,7 +1322,7 @@
       <c r="F23" s="3">
         <v>4</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1631,7 +1343,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1652,7 +1364,7 @@
       <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1673,7 +1385,7 @@
       <c r="F26" s="3">
         <v>5</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1694,7 +1406,7 @@
       <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1715,27 +1427,17 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1769,7 +1471,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1789,7 +1491,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1799,29 +1501,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1829,99 +1531,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3.3</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.5</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3.9</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9.7</v>
       </c>
       <c r="D16" s="3">
         <v>8</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.5</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2</v>
       </c>
       <c r="D18" s="3">
         <v>7</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1954,7 +1656,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1979,113 +1681,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>26.18</v>
       </c>
       <c r="C15" s="3">
         <v>33</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>5.17</v>
       </c>
       <c r="C16" s="3">
         <v>45</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>18.010000000000002</v>
       </c>
       <c r="C17" s="3">
         <v>36</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>9.16</v>
       </c>
       <c r="C18" s="3">
         <v>16</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>17.44</v>
       </c>
       <c r="C19" s="3">
         <v>39</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2094,94 +1796,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>5.54</v>
       </c>
       <c r="C24" s="3">
         <v>11</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>13.09</v>
       </c>
       <c r="C25" s="3">
         <v>29</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>10.21</v>
       </c>
       <c r="C26" s="3">
         <v>8</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>9.12</v>
       </c>
       <c r="C27" s="3">
         <v>28</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>26.54</v>
       </c>
       <c r="C28" s="3">
         <v>45</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2190,98 +1892,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>12.99</v>
       </c>
       <c r="C33" s="3">
         <v>48</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>6.68</v>
       </c>
       <c r="C34" s="3">
         <v>44</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>3.81</v>
       </c>
       <c r="C35" s="3">
         <v>18</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>28.59</v>
       </c>
       <c r="C36" s="3">
         <v>49</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>11.08</v>
       </c>
       <c r="C37" s="3">
         <v>31</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2304,7 +2006,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2324,90 +2026,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
@@ -2430,16 +2132,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
@@ -2462,16 +2164,16 @@
       <c r="J13" s="3">
         <v>5</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -2494,16 +2196,16 @@
       <c r="J14" s="3">
         <v>4</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
@@ -2526,16 +2228,16 @@
       <c r="J15" s="3">
         <v>2</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
@@ -2558,40 +2260,40 @@
       <c r="J16" s="3">
         <v>6</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2624,255 +2326,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>117</v>
+      <c r="A1" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>125</v>
+      <c r="A10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9556</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>103</v>
+      </c>
+      <c r="C12" s="7">
+        <v>13024</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
+      </c>
+      <c r="C13" s="7">
+        <v>9115</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>107</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8225</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>109</v>
+      </c>
+      <c r="C15" s="7">
+        <v>12819</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>111</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6419</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>113</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14282</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>115</v>
+      </c>
+      <c r="C18" s="7">
+        <v>11067</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>117</v>
+      </c>
+      <c r="C19" s="7">
+        <v>14121</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>119</v>
+      </c>
+      <c r="C20" s="7">
+        <v>11810</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>121</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6315</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>161</v>
+        <v>123</v>
+      </c>
+      <c r="C22" s="7">
+        <v>12749</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>164</v>
+        <v>125</v>
+      </c>
+      <c r="C23" s="7">
+        <v>9216</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>166</v>
+        <v>109</v>
+      </c>
+      <c r="C24" s="7">
+        <v>6694</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>169</v>
+        <v>128</v>
+      </c>
+      <c r="C25" s="7">
+        <v>11718</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>172</v>
+        <v>130</v>
+      </c>
+      <c r="C26" s="7">
+        <v>11844</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>173</v>
+      <c r="A29" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>177</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>177</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>177</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2907,86 +2603,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>178</v>
+      <c r="A1" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>195</v>
+      <c r="A15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2994,22 +2690,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>199</v>
+        <v>154</v>
+      </c>
+      <c r="D16" s="7">
+        <v>665</v>
+      </c>
+      <c r="E16" s="7">
+        <v>785</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3017,22 +2713,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>204</v>
+        <v>154</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1350</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1485</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3040,22 +2736,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>210</v>
+        <v>161</v>
+      </c>
+      <c r="D18" s="7">
+        <v>969</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1076</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3063,22 +2759,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>216</v>
+        <v>165</v>
+      </c>
+      <c r="D19" s="7">
+        <v>580</v>
+      </c>
+      <c r="E19" s="7">
+        <v>766</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3086,22 +2782,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>221</v>
+        <v>168</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1226</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1434</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3109,22 +2805,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>226</v>
+        <v>171</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1170</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1615</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3132,22 +2828,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>231</v>
+        <v>174</v>
+      </c>
+      <c r="D22" s="7">
+        <v>646</v>
+      </c>
+      <c r="E22" s="7">
+        <v>904</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3155,22 +2851,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>236</v>
+        <v>177</v>
+      </c>
+      <c r="D23" s="7">
+        <v>639</v>
+      </c>
+      <c r="E23" s="7">
+        <v>805</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3178,22 +2874,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1415</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1840</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3201,22 +2897,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>244</v>
+        <v>181</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1296</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1529</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3224,22 +2920,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>248</v>
+        <v>183</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1489</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1861</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3247,22 +2943,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>250</v>
+        <v>177</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1127</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1431</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3270,22 +2966,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>254</v>
+        <v>185</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1014</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1328</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3293,22 +2989,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>257</v>
+        <v>186</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1315</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1802</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3316,22 +3012,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>261</v>
+        <v>188</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1359</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1862</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3339,22 +3035,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>265</v>
+        <v>165</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1299</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1715</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3362,22 +3058,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>267</v>
+        <v>154</v>
+      </c>
+      <c r="D32" s="7">
+        <v>535</v>
+      </c>
+      <c r="E32" s="7">
+        <v>728</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3385,22 +3081,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>271</v>
+        <v>192</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1004</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1135</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3408,22 +3104,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>274</v>
+        <v>154</v>
+      </c>
+      <c r="D34" s="7">
+        <v>690</v>
+      </c>
+      <c r="E34" s="7">
+        <v>925</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3431,22 +3127,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>276</v>
+        <v>154</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1345</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1762</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3454,22 +3150,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>280</v>
+        <v>195</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1424</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1638</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3477,22 +3173,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>284</v>
+        <v>192</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1412</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1723</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>285</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3500,22 +3196,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>287</v>
+        <v>154</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1117</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1508</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3523,22 +3219,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>289</v>
+        <v>174</v>
+      </c>
+      <c r="D39" s="7">
+        <v>878</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1168</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3546,22 +3242,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>291</v>
+        <v>185</v>
+      </c>
+      <c r="D40" s="7">
+        <v>951</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1189</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3569,22 +3265,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>293</v>
+        <v>183</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1387</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1609</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3592,68 +3288,58 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>296</v>
+        <v>199</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1486</v>
+      </c>
+      <c r="E42" s="7">
+        <v>2080</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>297</v>
+        <v>200</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>285</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>173</v>
+      <c r="A45" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>298</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>177</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>299</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>177</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>300</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>177</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>301</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>177</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>302</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>177</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_007.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_007.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>ZESTAW ZADAŃ NR 7 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Aleksander Mazur</t>
+    <t>Emilia Urbaniak</t>
   </si>
   <si>
     <t>Mikołaj Woźniak</t>
   </si>
   <si>
-    <t>Szymon Grabowski</t>
-  </si>
-  <si>
-    <t>Anna Olszewska</t>
-  </si>
-  <si>
-    <t>Anna Górska</t>
+    <t>Wojciech Nowak</t>
+  </si>
+  <si>
+    <t>Natalia Bednarska</t>
+  </si>
+  <si>
+    <t>Antoni Zieliński</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 7 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Pędzelek</t>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
   </si>
   <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,36 +266,45 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Jaworska</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
   </si>
   <si>
     <t>Hanna</t>
   </si>
   <si>
-    <t>Bednarska</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
+    <t>Zawadzka</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
+  </si>
+  <si>
+    <t>Maja</t>
   </si>
   <si>
     <t>Urbaniak</t>
   </si>
   <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
     <t>Średnia przedmiotu:</t>
   </si>
   <si>
@@ -322,97 +338,49 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Hanna Maciejewska</t>
-  </si>
-  <si>
-    <t>12.10.1997</t>
-  </si>
-  <si>
-    <t>Mikołaj Wojciechowski</t>
-  </si>
-  <si>
-    <t>12.12.1989</t>
-  </si>
-  <si>
-    <t>Hanna Wilk</t>
-  </si>
-  <si>
-    <t>25.11.2001</t>
-  </si>
-  <si>
-    <t>Oliwia Zawadzka</t>
-  </si>
-  <si>
-    <t>16.12.1999</t>
-  </si>
-  <si>
-    <t>Hanna Jaworska</t>
-  </si>
-  <si>
-    <t>02.10.1998</t>
-  </si>
-  <si>
-    <t>Kacper Kwiatkowski</t>
-  </si>
-  <si>
-    <t>16.04.1999</t>
-  </si>
-  <si>
-    <t>Zuzanna Jaworska</t>
-  </si>
-  <si>
-    <t>20.05.2005</t>
-  </si>
-  <si>
-    <t>Jakub Wójcik</t>
-  </si>
-  <si>
-    <t>26.09.2005</t>
-  </si>
-  <si>
-    <t>Wojciech Mazur</t>
-  </si>
-  <si>
-    <t>26.03.1995</t>
-  </si>
-  <si>
-    <t>Julia Kubiak</t>
-  </si>
-  <si>
-    <t>28.10.2004</t>
-  </si>
-  <si>
-    <t>Amelia Wilk</t>
-  </si>
-  <si>
-    <t>17.05.1992</t>
-  </si>
-  <si>
-    <t>Antoni Kamiński</t>
-  </si>
-  <si>
-    <t>11.01.2005</t>
-  </si>
-  <si>
-    <t>Adam Zieliński</t>
-  </si>
-  <si>
-    <t>20.09.1983</t>
-  </si>
-  <si>
-    <t>Aleksander Wojciechowski</t>
-  </si>
-  <si>
-    <t>Emilia Rogalska</t>
-  </si>
-  <si>
-    <t>25.01.1993</t>
-  </si>
-  <si>
-    <t>Amelia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>24.08.2000</t>
+    <t>Amelia Sikorska</t>
+  </si>
+  <si>
+    <t>Lena Bednarska</t>
+  </si>
+  <si>
+    <t>Lena Piekarska</t>
+  </si>
+  <si>
+    <t>Julia Urbaniak</t>
+  </si>
+  <si>
+    <t>Jan Woźniak</t>
+  </si>
+  <si>
+    <t>Lena Sadowska</t>
+  </si>
+  <si>
+    <t>Szymon Piotrowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Urbaniak</t>
+  </si>
+  <si>
+    <t>Zuzanna Górska</t>
+  </si>
+  <si>
+    <t>Adam Wójcik</t>
+  </si>
+  <si>
+    <t>Kacper Kowalczyk</t>
+  </si>
+  <si>
+    <t>Jan Szymański</t>
+  </si>
+  <si>
+    <t>Lena Zawadzka</t>
+  </si>
+  <si>
+    <t>Hanna Piekarska</t>
+  </si>
+  <si>
+    <t>Maja Maciejewska</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -427,7 +395,64 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Adam Kozłowski</t>
+  </si>
+  <si>
+    <t>Adam Nowak</t>
+  </si>
+  <si>
+    <t>Julia Maciejewska</t>
+  </si>
+  <si>
+    <t>Zuzanna Piekarska</t>
+  </si>
+  <si>
+    <t>Wojciech Grabowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Emilia Borkowska</t>
+  </si>
+  <si>
+    <t>Jakub Woźniak</t>
+  </si>
+  <si>
+    <t>Filip Dąbrowski</t>
+  </si>
+  <si>
+    <t>Oliwia Borkowska</t>
+  </si>
+  <si>
+    <t>Szymon Kowalski</t>
+  </si>
+  <si>
+    <t>Zuzanna Zawadzka</t>
+  </si>
+  <si>
+    <t>Filip Wojciechowski</t>
+  </si>
+  <si>
+    <t>Antoni Lewandowski</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -484,145 +509,148 @@
     <t>marzec</t>
   </si>
   <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
   </si>
   <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>styczeń</t>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
   </si>
   <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
+    <t>Odtwarzacz DVD</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -694,7 +722,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,12 +745,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -753,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -764,13 +786,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1077,7 +1098,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1182,19 +1203,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1203,19 +1224,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>5</v>
       </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
       <c r="F18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1224,16 +1245,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
         <v>5</v>
       </c>
       <c r="E19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
@@ -1245,16 +1266,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
         <v>2</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
       </c>
       <c r="D20" s="3">
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>4</v>
@@ -1266,16 +1287,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>5</v>
@@ -1287,19 +1308,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
         <v>3</v>
       </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4</v>
-      </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1308,19 +1329,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1332,16 +1353,16 @@
         <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3">
         <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1353,16 +1374,16 @@
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1371,19 +1392,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3">
         <v>3</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1392,19 +1413,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1413,16 +1434,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
         <v>6</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
@@ -1438,6 +1459,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1471,7 +1498,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1491,7 +1518,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1501,29 +1528,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1531,99 +1558,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3.3</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.5</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.5</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.7</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3.9</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>9.7</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>16.5</v>
       </c>
       <c r="D16" s="3">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5.5</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.2</v>
       </c>
       <c r="D18" s="3">
-        <v>7</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1640,10 +1667,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1656,7 +1683,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1681,27 +1708,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1709,85 +1736,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>26.18</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>20.21</v>
       </c>
       <c r="C15" s="3">
-        <v>33</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>5.17</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3.47</v>
       </c>
       <c r="C16" s="3">
-        <v>45</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>18.010000000000002</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>26.63</v>
       </c>
       <c r="C17" s="3">
-        <v>36</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>9.16</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3.22</v>
       </c>
       <c r="C18" s="3">
-        <v>16</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>17.44</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>30.69</v>
       </c>
       <c r="C19" s="3">
-        <v>39</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1796,8 +1823,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1805,85 +1832,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>5.54</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>27.32</v>
       </c>
       <c r="C24" s="3">
-        <v>11</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>13.09</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>9.92</v>
       </c>
       <c r="C25" s="3">
-        <v>29</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>10.21</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>16.61</v>
       </c>
       <c r="C26" s="3">
-        <v>8</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>9.12</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>13.18</v>
       </c>
       <c r="C27" s="3">
         <v>28</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>26.54</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>30.41</v>
       </c>
       <c r="C28" s="3">
-        <v>45</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1892,8 +1919,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1901,89 +1928,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>12.99</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>15.3</v>
       </c>
       <c r="C33" s="3">
-        <v>48</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>6.68</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>22.18</v>
       </c>
       <c r="C34" s="3">
-        <v>44</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>3.81</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>3.06</v>
       </c>
       <c r="C35" s="3">
-        <v>18</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>28.59</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>27.9</v>
       </c>
       <c r="C36" s="3">
-        <v>49</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>11.08</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>15.82</v>
       </c>
       <c r="C37" s="3">
-        <v>31</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2003,10 +2038,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L18"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2026,111 +2061,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3">
         <v>6</v>
       </c>
       <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
         <v>5</v>
       </c>
-      <c r="I12" s="3">
-        <v>2</v>
-      </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2138,31 +2173,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2170,31 +2205,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
       </c>
       <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>4</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2202,28 +2237,28 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6</v>
-      </c>
-      <c r="H15" s="3">
-        <v>6</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3</v>
       </c>
       <c r="J15" s="3">
         <v>2</v>
@@ -2234,54 +2269,70 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
         <v>4</v>
       </c>
       <c r="G16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
         <v>3</v>
       </c>
-      <c r="I16" s="3">
-        <v>2</v>
-      </c>
       <c r="J16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2292,14 +2343,30 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2312,10 +2379,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A30" sqref="A30:B32"/>
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2326,249 +2393,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>91</v>
+      <c r="A1" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="7">
-        <v>9556</v>
+        <v>105</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C11" s="8">
+        <v>11849</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="7">
-        <v>13024</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6026</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="7">
-        <v>9115</v>
+        <v>107</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C13" s="8">
+        <v>12659</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="7">
-        <v>8225</v>
+        <v>108</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C14" s="8">
+        <v>11239</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="7">
-        <v>12819</v>
+      <c r="B15" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5981</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="7">
-        <v>6419</v>
+      <c r="B16" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4270</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="7">
-        <v>14282</v>
+        <v>111</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C17" s="8">
+        <v>9732</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="7">
-        <v>11067</v>
+        <v>112</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C18" s="8">
+        <v>12976</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="7">
-        <v>14121</v>
+        <v>113</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4991</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="7">
-        <v>11810</v>
+        <v>114</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10558</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6315</v>
+        <v>115</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4266</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="7">
-        <v>12749</v>
+        <v>116</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4703</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="7">
-        <v>9216</v>
+        <v>117</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C23" s="8">
+        <v>10624</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="7">
-        <v>6694</v>
+        <v>118</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C24" s="8">
+        <v>12071</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="7">
-        <v>11718</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="7">
-        <v>11844</v>
+        <v>119</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C25" s="8">
+        <v>13087</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="17" t="s">
-        <v>131</v>
-      </c>
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="B31" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2585,10 +2641,221 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46:B50"/>
+      <selection activeCell="A10" sqref="A10:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="3">
+        <v>90</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3">
+        <v>122</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3">
+        <v>135</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="3">
+        <v>104</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="3">
+        <v>135</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="3">
+        <v>192</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="3">
+        <v>197</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="3">
+        <v>136</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="3">
+        <v>133</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="3">
+        <v>193</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="3">
+        <v>111</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="3">
+        <v>176</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="3">
+        <v>133</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="3">
+        <v>145</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="3">
+        <v>91</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="3">
+        <v>143</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2603,86 +2870,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>135</v>
+      <c r="A1" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2690,22 +2957,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="7">
-        <v>665</v>
-      </c>
-      <c r="E16" s="7">
-        <v>785</v>
+        <v>162</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1001</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1141</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2713,22 +2980,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1350</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1485</v>
+        <v>162</v>
+      </c>
+      <c r="D17" s="8">
+        <v>864</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1011</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2736,22 +3003,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="7">
-        <v>969</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1076</v>
+        <v>167</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1137</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1364</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2759,22 +3026,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1138</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1297</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="7">
-        <v>580</v>
-      </c>
-      <c r="E19" s="7">
-        <v>766</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2782,22 +3049,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1226</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1434</v>
+        <v>172</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1453</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1627</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2805,22 +3072,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1170</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1615</v>
+        <v>176</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1378</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1778</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2828,22 +3095,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="8">
+        <v>839</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1124</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D22" s="7">
-        <v>646</v>
-      </c>
-      <c r="E22" s="7">
-        <v>904</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2851,22 +3118,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="7">
-        <v>639</v>
-      </c>
-      <c r="E23" s="7">
-        <v>805</v>
+        <v>181</v>
+      </c>
+      <c r="D23" s="8">
+        <v>545</v>
+      </c>
+      <c r="E23" s="8">
+        <v>758</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2874,22 +3141,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1415</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1840</v>
+        <v>183</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1331</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1850</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2897,22 +3164,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1296</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1529</v>
+        <v>185</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1043</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1231</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2920,22 +3187,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1312</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1797</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1489</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1861</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2943,22 +3210,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1127</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1431</v>
+        <v>187</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1109</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1519</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2966,22 +3233,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1014</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1328</v>
+        <v>172</v>
+      </c>
+      <c r="D28" s="8">
+        <v>510</v>
+      </c>
+      <c r="E28" s="8">
+        <v>638</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2989,22 +3256,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1315</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1802</v>
+        <v>190</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1336</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1576</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3012,22 +3279,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1359</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1862</v>
+        <v>162</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1003</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1304</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3035,22 +3302,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1299</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1715</v>
+        <v>183</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1001</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1291</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3058,22 +3325,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="7">
-        <v>535</v>
-      </c>
-      <c r="E32" s="7">
-        <v>728</v>
+        <v>196</v>
+      </c>
+      <c r="D32" s="8">
+        <v>978</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1301</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3081,22 +3348,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1004</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1135</v>
+        <v>197</v>
+      </c>
+      <c r="D33" s="8">
+        <v>846</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1032</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3104,22 +3371,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="7">
-        <v>690</v>
-      </c>
-      <c r="E34" s="7">
-        <v>925</v>
+        <v>199</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1049</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1259</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3127,22 +3394,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1345</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1762</v>
+        <v>201</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1215</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1543</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3150,22 +3417,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1424</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1638</v>
+        <v>203</v>
+      </c>
+      <c r="D36" s="8">
+        <v>989</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1098</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3173,22 +3440,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1412</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1723</v>
+        <v>206</v>
+      </c>
+      <c r="D37" s="8">
+        <v>558</v>
+      </c>
+      <c r="E37" s="8">
+        <v>720</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3196,22 +3463,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1117</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1508</v>
+        <v>197</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1269</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1675</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3219,22 +3486,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="7">
-        <v>878</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1168</v>
+        <v>197</v>
+      </c>
+      <c r="D39" s="8">
+        <v>856</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1079</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3242,22 +3509,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" s="7">
-        <v>951</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1189</v>
+        <v>209</v>
+      </c>
+      <c r="D40" s="8">
+        <v>768</v>
+      </c>
+      <c r="E40" s="8">
+        <v>891</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3265,81 +3532,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1387</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1609</v>
+        <v>181</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1072</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1276</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1486</v>
-      </c>
-      <c r="E42" s="7">
-        <v>2080</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="17" t="s">
-        <v>131</v>
-      </c>
+      <c r="A45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>204</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>205</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
